--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/应交所得税.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/应交所得税.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,371 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2.59522</v>
-      </c>
-      <c r="C2" t="n">
-        <v>12.05238</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.55395</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.01947</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.77021</v>
-      </c>
-      <c r="G2" t="n">
-        <v>8.82728</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3.54355</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.88675</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.54278</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.68147</v>
-      </c>
-      <c r="L2" t="n">
-        <v>128.22387</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.39727</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.25693</v>
-      </c>
-      <c r="O2" t="n">
-        <v>4.82295</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.83567</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.03462</v>
-      </c>
-      <c r="R2" t="n">
-        <v>4.96742</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.64423</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>1.0298</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.04872</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.09376</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.01206</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>11.90583</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>23.37686</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>6.94941</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.93866</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.29624</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="n">
-        <v>4.4979</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.08853999999999999</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>3.10756</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>2.77126</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>3.36154</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.14028</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>3.18772</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>2.61452</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>5.22165</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>2.14692</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.00249</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3.3195</v>
-      </c>
-      <c r="C3" t="n">
-        <v>20.84323</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.9244</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>2.70203</v>
-      </c>
-      <c r="G3" t="n">
-        <v>8.46195</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.8395</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.818</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.05599</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.59931</v>
-      </c>
-      <c r="L3" t="n">
-        <v>154.78152</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.62438</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.7504</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6.26892</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.85323</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.02895</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5.98912</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.60944</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>0.91555</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.20312</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.12789</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.07141</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9.938650000000001</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>28.18026</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>9.65573</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>2.02992</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.69513</v>
-      </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="n">
-        <v>4.94653</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.20747</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>3.96863</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>4.48801</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>4.00576</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.15871</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>4.53188</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>4.98157</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>4.74583</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1.23836</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.00276</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5.45845</v>
-      </c>
-      <c r="C4" t="n">
-        <v>28.88971</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.70913</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>3.6941</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12.62177</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7.28929</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.28589</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.48291</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.51442</v>
-      </c>
-      <c r="L4" t="n">
-        <v>218.50613</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.20257</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.27412</v>
-      </c>
-      <c r="O4" t="n">
-        <v>10.52022</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.47068</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.03359</v>
-      </c>
-      <c r="R4" t="n">
-        <v>6.29344</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.95252</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>1.46639</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.06682</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.22079</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.14645</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>21.39665</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>35.7866</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>12.36914</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>3.12832</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1.77537</v>
-      </c>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="n">
-        <v>5.87761</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.32239</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>5.27696</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>5.95285</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>4.71507</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.23649</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>7.56548</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>4.5422</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>5.83568</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>2.12394</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.00812</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
